--- a/LD1014/LD1014D_list.xlsx
+++ b/LD1014/LD1014D_list.xlsx
@@ -1577,6 +1577,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1590,10 +1594,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1670,6 +1670,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1741,7 +1757,7 @@
   <dimension ref="A1:AMJ465"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19:C464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1749,24 +1765,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="3" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="AMI1" s="7"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="AMI2" s="7"/>
-      <c r="AMJ2" s="0"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="AMI1" s="3"/>
+      <c r="AMJ1" s="3"/>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="AMI2" s="3"/>
+      <c r="AMJ2" s="3"/>
     </row>
     <row r="3" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -1774,15 +1790,15 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
-      <c r="AMI3" s="7"/>
-      <c r="AMJ3" s="0"/>
+      <c r="AMI3" s="3"/>
+      <c r="AMJ3" s="3"/>
     </row>
     <row r="4" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="AMI4" s="7"/>
-      <c r="AMJ4" s="0"/>
+      <c r="AMI4" s="3"/>
+      <c r="AMJ4" s="3"/>
     </row>
     <row r="5" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -1790,8 +1806,8 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="AMI5" s="7"/>
-      <c r="AMJ5" s="0"/>
+      <c r="AMI5" s="3"/>
+      <c r="AMJ5" s="3"/>
     </row>
     <row r="6" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
@@ -1799,8 +1815,8 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
-      <c r="AMI6" s="7"/>
-      <c r="AMJ6" s="0"/>
+      <c r="AMI6" s="3"/>
+      <c r="AMJ6" s="3"/>
     </row>
     <row r="7" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
@@ -1808,15 +1824,15 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="AMI7" s="7"/>
-      <c r="AMJ7" s="0"/>
+      <c r="AMI7" s="3"/>
+      <c r="AMJ7" s="3"/>
     </row>
     <row r="8" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="AMI8" s="7"/>
-      <c r="AMJ8" s="0"/>
+      <c r="AMI8" s="3"/>
+      <c r="AMJ8" s="3"/>
     </row>
     <row r="9" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -1824,8 +1840,8 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="AMI9" s="7"/>
-      <c r="AMJ9" s="0"/>
+      <c r="AMI9" s="3"/>
+      <c r="AMJ9" s="3"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
@@ -1833,8 +1849,8 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="AMI10" s="7"/>
-      <c r="AMJ10" s="0"/>
+      <c r="AMI10" s="3"/>
+      <c r="AMJ10" s="3"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
@@ -1842,8 +1858,8 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="AMI11" s="7"/>
-      <c r="AMJ11" s="0"/>
+      <c r="AMI11" s="3"/>
+      <c r="AMJ11" s="3"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
@@ -1851,15 +1867,15 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="AMI12" s="7"/>
-      <c r="AMJ12" s="0"/>
+      <c r="AMI12" s="3"/>
+      <c r="AMJ12" s="3"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="AMI13" s="7"/>
-      <c r="AMJ13" s="0"/>
+      <c r="AMI13" s="3"/>
+      <c r="AMJ13" s="3"/>
     </row>
     <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
@@ -1867,8 +1883,8 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="AMI14" s="7"/>
-      <c r="AMJ14" s="0"/>
+      <c r="AMI14" s="3"/>
+      <c r="AMJ14" s="3"/>
     </row>
     <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
@@ -1876,15 +1892,15 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="AMI15" s="7"/>
-      <c r="AMJ15" s="0"/>
+      <c r="AMI15" s="3"/>
+      <c r="AMJ15" s="3"/>
     </row>
     <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="AMI16" s="7"/>
-      <c r="AMJ16" s="0"/>
+      <c r="AMI16" s="3"/>
+      <c r="AMJ16" s="3"/>
     </row>
     <row r="18" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
@@ -1899,8 +1915,8 @@
       <c r="F18" s="10"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
-      <c r="AMI18" s="7"/>
-      <c r="AMJ18" s="0"/>
+      <c r="AMI18" s="3"/>
+      <c r="AMJ18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
@@ -3454,7 +3470,7 @@
       <c r="F156" s="22"/>
       <c r="G156" s="23"/>
       <c r="H156" s="22"/>
-      <c r="AMJ156" s="0"/>
+      <c r="AMJ156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
@@ -3717,7 +3733,7 @@
       <c r="B179" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="7"/>
+      <c r="C179" s="3"/>
       <c r="E179" s="16"/>
       <c r="F179" s="15"/>
       <c r="G179" s="2"/>
